--- a/Output.xlsx
+++ b/Output.xlsx
@@ -2,27 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\ColorPacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94929D3D-BB62-49F3-ACF2-BE8DC242CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E832E29-E9EF-45BD-A686-E737DF9C57A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="2" xr2:uid="{917B8E43-342D-4E94-A4E5-DE9F0F222C69}"/>
   </bookViews>
   <sheets>
-    <sheet name="长尾分布" sheetId="2" r:id="rId1"/>
-    <sheet name="均布分布" sheetId="3" r:id="rId2"/>
+    <sheet name="平均" sheetId="4" r:id="rId1"/>
+    <sheet name="双色均布" sheetId="5" r:id="rId2"/>
     <sheet name="Output" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Shelf</t>
   </si>
@@ -33,19 +46,40 @@
     <t>Color</t>
   </si>
   <si>
-    <t>FFUse</t>
+    <t>多色/均布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FFDUse</t>
+    <t>多色/长尾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SAUse</t>
+    <t>双色/均布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PSUse</t>
+    <t>双色/长尾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GAUse</t>
+    <t>FF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,8 +672,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,351 +751,91 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11324309823856563"/>
+          <c:y val="2.089631364346644E-2"/>
+          <c:w val="0.8731047883551557"/>
+          <c:h val="0.87212838168581253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$M$1</c:f>
+              <c:f>Output!$W$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FFUse</c:v>
+                  <c:v>FF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Output!$V$67:$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>多色/均布</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>双色/均布</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>多色/长尾</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>双色/长尾</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$M$2:$M$92</c:f>
+              <c:f>Output!$W$67:$W$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.86</c:v>
+                  <c:v>93.308333329999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.27</c:v>
+                  <c:v>91.08666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.290000000000006</c:v>
+                  <c:v>76.688333330000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>77.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.73</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>76.67</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>75.58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>78.34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>82.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>74.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75.16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>74.61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>78.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>83.45</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>72.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74.34</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>75.94</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>81.7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>76.38</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>76.61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.84</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>77.16</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>74.63</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>81.89</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>74.48</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77.650000000000006</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>78.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>75.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>77.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>77.09</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74.28</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>84.35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>74.23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>82.43</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>81.37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>74.72</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>70.03</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>74.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>74.42</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>70.64</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>76.22</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>76.180000000000007</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>76.03</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>75.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>55.36</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63.16</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>59.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>61.19</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>57.19</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>62.62</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>57.74</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>60.14</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>61.77</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>60.3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>60.55</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>58.15</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>64.95</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>63.34</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>58.11</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>62.41</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>59.97</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>60.38</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>59.65</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>61.71</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>64.3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>64.36</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>61.12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>59.26</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>64.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>60.64</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>59.58</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>64.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>60.92</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>60.18</c:v>
+                  <c:v>60.918333330000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3759-4D0B-B256-376946DC4907}"/>
+              <c16:uniqueId val="{00000000-812A-468B-A3CB-81DE97407E1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1067,310 +844,69 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$N$1</c:f>
+              <c:f>Output!$X$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FFDUse</c:v>
+                  <c:v>FFD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Output!$V$67:$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>多色/均布</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>双色/均布</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>多色/长尾</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>双色/长尾</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$N$2:$N$92</c:f>
+              <c:f>Output!$X$67:$X$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70.180000000000007</c:v>
+                  <c:v>98.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.8</c:v>
+                  <c:v>93.246333329999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.25</c:v>
+                  <c:v>68.175333330000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71.56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70.08</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69.09</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67.27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>65.11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>69.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>65.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70.75</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>70.67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.02</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>68.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>70.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>70.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>69.63</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>68.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63.39</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>68.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>73.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>66.92</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.59</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>70.97</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>68.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>65.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>69.98</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>69.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>64.77</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>76.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>70.31</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>68.14</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>63.78</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>68.22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>66.59</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>62.46</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>67.27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>66.47</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>66.86</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>69.03</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.52</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>52.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>58.58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>56.74</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>55.41</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>53.51</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>57.15</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>54.55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>55.91</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>55.67</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>56.82</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>54.97</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>55.79</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>58.42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>59.19</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>54.31</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>58.71</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>55.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>57.61</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>55.46</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>56.81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>59.51</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>57.54</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>58.52</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>55.78</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>59.46</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>57.06</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>55.89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>60.31</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>55.71</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>57.41</c:v>
+                  <c:v>56.687333330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3759-4D0B-B256-376946DC4907}"/>
+              <c16:uniqueId val="{00000001-812A-468B-A3CB-81DE97407E1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1379,310 +915,69 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$O$1</c:f>
+              <c:f>Output!$Y$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SAUse</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Output!$V$67:$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>多色/均布</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>双色/均布</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>多色/长尾</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>双色/长尾</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$O$2:$O$92</c:f>
+              <c:f>Output!$Y$67:$Y$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>84.22</c:v>
+                  <c:v>96.320166670000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.66</c:v>
+                  <c:v>95.277333330000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.27</c:v>
+                  <c:v>83.086166669999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88.16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>84.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81.96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>84.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85.04</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>83.11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87.62</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80.72</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>82.44</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>86.93</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>88.23</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>82.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85.87</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>85.32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>83.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>80.66</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>80.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>83.12</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>79.09</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>85.89</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80.650000000000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82.81</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>83.31</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81.28</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>87.33</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>86.04</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>84.23</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>79.52</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>90.21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>84.16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>86.58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88.01</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>87.63</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>81.22</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>76.31</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>79.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>82.51</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>77.31</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>82.87</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>82.11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>83.57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>83.97</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>82.64</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>68.88</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66.959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>64.06</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>62.32</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>66.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>66.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>67.3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>67.72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>65.94</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>70.52</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>70.97</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>64.91</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>69.03</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>65.42</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>68.64</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>67.06</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>65.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>72.17</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>70.73</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>68.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>69.14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>72.680000000000007</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>68.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>63.97</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>73.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>64.09</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>68.23</c:v>
+                  <c:v>67.672333330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3759-4D0B-B256-376946DC4907}"/>
+              <c16:uniqueId val="{00000002-812A-468B-A3CB-81DE97407E1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1691,310 +986,69 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$P$1</c:f>
+              <c:f>Output!$Z$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PSUse</c:v>
+                  <c:v>PS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Output!$V$67:$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>多色/均布</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>双色/均布</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>多色/长尾</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>双色/长尾</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$P$2:$P$92</c:f>
+              <c:f>Output!$Z$67:$Z$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83.21</c:v>
+                  <c:v>96.114999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.040000000000006</c:v>
+                  <c:v>94.683000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.98</c:v>
+                  <c:v>81.451666669999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83.99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78.52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80.39</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>84.71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81.010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85.38</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>77.55</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>79.97</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>86.58</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>79.39</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.02</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>83.68</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>84.79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>80.38</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>79.44</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>81.33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>77.19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86.21</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>78.12</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>81.31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>81.83</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>79.87</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>86.23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>83.32</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>82.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>78.14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>88.97</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>81.56</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>86.58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>86.83</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>87.06</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>74.02</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>77.64</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>81.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>73.94</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>82.57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>80.92</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>81.44</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>81.53</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>79.67</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>66.86</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65.97</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65.87</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>61.69</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>65.48</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>63.76</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>64.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>64.430000000000007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>64.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>62.93</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>67.78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>68.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>61.89</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>67.19</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.37</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>64.52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>63.23</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>64.86</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>68.87</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>67.23</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>67.08</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>66.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>69.02</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>64.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>62.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>70.55</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>63.72</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>66.02</c:v>
+                  <c:v>65.162666669999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3759-4D0B-B256-376946DC4907}"/>
+              <c16:uniqueId val="{00000003-812A-468B-A3CB-81DE97407E1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2003,310 +1057,69 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$Q$1</c:f>
+              <c:f>Output!$AA$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GAUse</c:v>
+                  <c:v>GA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Output!$V$67:$V$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>多色/均布</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>双色/均布</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>多色/长尾</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>双色/长尾</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$Q$2:$Q$92</c:f>
+              <c:f>Output!$AA$67:$AA$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>82.23</c:v>
+                  <c:v>95.745166670000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.25</c:v>
+                  <c:v>94.16033333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.54</c:v>
+                  <c:v>80.830333330000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81.569999999999993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>79.48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.04</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81.010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>84.83</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>76.69</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80.02</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>79.03</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85.51</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>78.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.02</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>83.15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>84.26</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80.86</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>79.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>79.72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.93</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77.58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>80.72</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82.12</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>78.959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>85.69</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>82.28</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>80.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77.69</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>88.37</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>81.56</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>86.58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>86.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>85.93</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>78.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>73.77</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>76.87</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>81.62</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>72.73</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>81.11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>79.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>80.56</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>81.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>79.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>66.86</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64.69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.88</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>61.4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>64.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>60.02</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>64.13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>63.93</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>63.88</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>63.78</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>62.36</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>67.13</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>67.78</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>61.32</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>66.22</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.55</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>63.97</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>63.23</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>63.77</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>69.94</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>66.569999999999993</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>66.12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>66.38</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>69.72</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>64.33</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>61.7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>69.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>62.99</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>64.88</c:v>
+                  <c:v>64.656999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3759-4D0B-B256-376946DC4907}"/>
+              <c16:uniqueId val="{00000004-812A-468B-A3CB-81DE97407E1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2318,12 +1131,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="93347056"/>
-        <c:axId val="93334576"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="386398671"/>
+        <c:axId val="386399151"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="93347056"/>
+        <c:axId val="386398671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,22 +1165,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93334576"/>
+        <c:crossAx val="386399151"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2374,1879 +1188,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93334576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93347056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:rPr>
-              <a:t>均布颜色分布</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFUse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$D$2:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>92.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>93.38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95.27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94.29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>92.89</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>93.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>94.08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>93.84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>92.49</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>92.54</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>93.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>93.66</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>93.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93.52</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>92.19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>93.85</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>92.34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93.93</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>93.12</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92.63</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>94.02</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>93.42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95.18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>94.02</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>93.42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>92.73</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>93.1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>91.51</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>92.02</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>93.37</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>94.11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>91.96</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>92.13</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>95.06</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>92.39</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>94.43</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.19</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>94.98</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>93.74</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>94.49</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>93.29</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>94.13</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>93.45</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>94.9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>94.16</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95.05</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>90.18</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>91.1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>91.57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>91.26</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>90.23</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>91.36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>92.72</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>91.25</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>90.82</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>89.38</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>91.27</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>87.82</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>89.77</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>91.14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>90.75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>89.59</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>92.55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>93.38</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>91.58</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>89.26</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>91.14</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>90.48</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>90.92</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>89.19</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>92.09</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>91.79</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93.86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>93.17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91.62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E61-4350-BCD5-0324CE7DF559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFDUse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$E$2:$E$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>97.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98.29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98.99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98.88</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98.94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95.57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>98.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>98.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>98.78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97.93</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97.87</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>98.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>97.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>98.94</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>98.95</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>98.77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>97.32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>99.13</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>98.99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>98.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>98.89</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>99.02</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>99.16</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>98.09</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>98.9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>99.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>97.44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>97.31</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>97.94</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>98.98</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>98.17</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>97.96</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>98.41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>98.61</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>98.33</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98.76</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>97.94</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>98.75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>98.13</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>99.01</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>98.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>99.02</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.82</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>98.66</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>99.13</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>98.87</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>93.32</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>95.85</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>92.35</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>95.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>91.89</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>93.16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>96.39</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>86.92</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>91.63</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>96.64</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>86.44</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>92.47</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>89.18</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>92.41</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94.52</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>91.42</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>92.55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>97.06</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>92.69</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>95.55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>95.63</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>96.17</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>96.73</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>92.48</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89.61</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89.73</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94.36</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E61-4350-BCD5-0324CE7DF559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SAUse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$F$2:$F$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>96.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96.49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>96.83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96.66</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>96.51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>95.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>96.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>96.78</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>96.38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>96.16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>96.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>96.61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96.29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>96.82</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>96.45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>96.46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>96.41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>96.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>96.64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96.73</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>95.29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>95.88</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.09</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>96.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>96.56</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96.45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>96.26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>96.52</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>96.64</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>96.48</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96.51</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>96.27</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>96.12</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>96.58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>96.29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>95.36</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>95.19</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>95.65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>95.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.86</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>95.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>95.98</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>95.92</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>95.2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>95.42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>95.21</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>95.04</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>93.71</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>93.49</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>95.73</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94.91</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>95.74</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>95.28</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>95.8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>95.79</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>94.88</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>94.97</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>94.73</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>95.67</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>94.48</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>95.06</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E61-4350-BCD5-0324CE7DF559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PSUse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$G$2:$G$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>95.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>96.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>96.42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96.66</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>96.51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>95.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>95.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>96.08</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>96.38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>96.16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>96.03</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>96.61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96.29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>96.39</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>96.05</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>96.46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.62</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>96.41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>96.64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96.31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>95.81</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>94.64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>95.88</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.09</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>96.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>95.87</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96.45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>95.82</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>96.08</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>96.09</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>96.55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96.11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>96.68</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>96.12</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>96.58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>96.29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>94.67</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>94.53</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>94.97</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>95.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>94.31</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>95.18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>94.79</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>95.02</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>94.52</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>94.39</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>93.09</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>92.21</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>95.05</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94.13</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>95.28</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>95.8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>93.57</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>94.97</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>94.19</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>94.82</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>94.08</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>94.45</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>94.48</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>95.46</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>95.58</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>94.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8E61-4350-BCD5-0324CE7DF559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GAUse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$H$2:$H$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>95.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94.63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>96.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>96.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.91</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>94.01</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>96.13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95.82</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>94.54</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>95.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>95.68</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>95.49</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>96.03</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>95.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96.29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>96.39</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>95.85</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>95.27</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>96.46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95.99</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>96.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96.31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>95.41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>94.64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>95.21</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>96.09</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>95.42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>95.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>95.75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>95.83</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>95.82</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>96.21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>96.22</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>95.68</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>96.09</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>96.13</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>95.85</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>96.12</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>96.17</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95.87</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>93.99</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>93.88</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>94.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>93.83</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>93.93</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>94.39</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>94.69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>94.38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>94.62</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>93.18</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>93.12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>93.09</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>92.85</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>94.37</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>93.74</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>94.88</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>95.39</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>94.61</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>93.57</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>94.31</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>93.55</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>94.15</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>93.44</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>94.05</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>94.09</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>95.06</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>95.17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>94.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8E61-4350-BCD5-0324CE7DF559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="93349936"/>
-        <c:axId val="93344176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="93349936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>多种颜色                                                                                                                             两种颜色</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.32822163808376359"/>
-              <c:y val="0.90298861710335288"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93344176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93344176"/>
+        <c:axId val="386399151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="85"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4281,38 +1227,38 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   </a:rPr>
-                  <a:t>最终解填充度</a:t>
+                  <a:t>使用率</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   </a:rPr>
                   <a:t>/%</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 </a:endParaRPr>
               </a:p>
@@ -4327,23 +1273,1247 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386398671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.53692095824076502"/>
+          <c:y val="2.0223847235113314E-2"/>
+          <c:w val="0.44766881563831318"/>
+          <c:h val="5.6159089723670112E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4076367342467794E-2"/>
+          <c:y val="2.4333839506768019E-2"/>
+          <c:w val="0.91090630791062577"/>
+          <c:h val="0.91816213795285562"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$D$2:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>92.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92.73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91.51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.37</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>94.43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>94.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>93.74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>94.49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>93.29</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B3A-4E86-ACC1-82C1693ADD54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$E$2:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>97.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97.31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>98.98</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>98.17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98.76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98.13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>98.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B3A-4E86-ACC1-82C1693ADD54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$F$2:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96.46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95.88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>96.52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96.27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>96.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B3A-4E86-ACC1-82C1693ADD54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$G$2:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>95.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96.46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95.99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95.81</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>94.64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95.88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.82</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.08</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96.68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>96.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B3A-4E86-ACC1-82C1693ADD54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="617878783"/>
+        <c:axId val="617879263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="617878783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617879263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617879263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>使用率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/%</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.3857049902989373E-3"/>
+              <c:y val="0.41829154701333265"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4363,22 +2533,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93349936"/>
+        <c:crossAx val="617878783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4393,11 +2563,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5753439176986106"/>
+          <c:y val="2.3813899734221985E-2"/>
+          <c:w val="0.40904870676324623"/>
+          <c:h val="4.8389774495868204E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4406,7 +2590,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4414,8 +2598,8 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4431,12 +2615,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4451,6 +2630,1009 @@
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4737628989263371E-2"/>
+          <c:y val="2.4333839506768019E-2"/>
+          <c:w val="0.92024506692268382"/>
+          <c:h val="0.90153697122024345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$D$63:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>93.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7321-40A5-A0DB-9773641D8D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$E$63:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>93.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7321-40A5-A0DB-9773641D8D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$F$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$F$63:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>95.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7321-40A5-A0DB-9773641D8D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$G$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$G$63:$G$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>94.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7321-40A5-A0DB-9773641D8D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Output!$H$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Output!$H$63:$H$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>93.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7321-40A5-A0DB-9773641D8D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="617878783"/>
+        <c:axId val="617879263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="617878783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617879263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617879263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="98"/>
+          <c:min val="86"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2800" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>使用率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2800" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/%</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800" baseline="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2631188886093473E-3"/>
+              <c:y val="0.41829154148748865"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617878783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65194647709690867"/>
+          <c:y val="2.3813899734221985E-2"/>
+          <c:w val="0.33244612860561246"/>
+          <c:h val="5.0052297078825241E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4534,8 +3716,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4643,11 +3865,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4658,11 +3875,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4694,9 +3906,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5566,8 +4775,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B5CFE93-BF95-41E1-B64D-CCBE9BCB4FBE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E0D52017-AC83-4874-827A-099E142E7F27}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="197" workbookViewId="0" zoomToFit="1"/>
@@ -5578,7 +5303,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A5DE3F79-CB85-4855-ABC9-C2163F4573E5}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3E7DA6EE-BEFC-49FD-9A9B-1F673A737A2B}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="197" workbookViewId="0" zoomToFit="1"/>
@@ -5598,7 +5323,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954BB78C-6D99-10E4-D535-F65C8D8820A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA327AA5-F1FC-BFF4-8A4C-031664A7473C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5631,7 +5356,40 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFB7385-DC10-2634-2C90-4A3813666266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDBD22B-665B-280F-7BB1-414B2A3BB009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12192000" y="2324100"/>
+    <xdr:ext cx="16268699" cy="7639050"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FC49A5-3136-479E-84E3-FCBB6789FF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5657,7 +5415,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="自定义 2">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5671,22 +5429,22 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="667BE6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="76CAB5"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="FFDD7D"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="F98456"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="FA1B23"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="FAF482"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
@@ -5971,15 +5729,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9D8D6-1952-4068-9539-C633F6E5D7B6}">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="23" max="27" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5990,19 +5751,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -6014,22 +5775,22 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>500</v>
       </c>
@@ -6054,6 +5815,9 @@
       <c r="H2">
         <v>95.18</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
         <v>500</v>
       </c>
@@ -6079,7 +5843,7 @@
         <v>82.23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>500</v>
       </c>
@@ -6104,6 +5868,9 @@
       <c r="H3">
         <v>95.99</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3">
         <v>500</v>
       </c>
@@ -6129,7 +5896,7 @@
         <v>72.25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>500</v>
       </c>
@@ -6154,6 +5921,9 @@
       <c r="H4">
         <v>95.95</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
       <c r="J4">
         <v>500</v>
       </c>
@@ -6178,8 +5948,23 @@
       <c r="Q4">
         <v>86.54</v>
       </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>500</v>
       </c>
@@ -6204,6 +5989,9 @@
       <c r="H5">
         <v>94.48</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
       <c r="J5">
         <v>500</v>
       </c>
@@ -6228,8 +6016,23 @@
       <c r="Q5">
         <v>81.14</v>
       </c>
+      <c r="S5">
+        <v>78.75</v>
+      </c>
+      <c r="T5">
+        <v>70.97</v>
+      </c>
+      <c r="U5">
+        <v>83.31</v>
+      </c>
+      <c r="V5">
+        <v>81.83</v>
+      </c>
+      <c r="W5">
+        <v>82.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500</v>
       </c>
@@ -6254,6 +6057,9 @@
       <c r="H6">
         <v>94.75</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
       <c r="J6">
         <v>500</v>
       </c>
@@ -6279,7 +6085,7 @@
         <v>79.61</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -6304,6 +6110,9 @@
       <c r="H7">
         <v>95.35</v>
       </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
       <c r="J7">
         <v>500</v>
       </c>
@@ -6329,7 +6138,7 @@
         <v>79.930000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>500</v>
       </c>
@@ -6354,6 +6163,9 @@
       <c r="H8">
         <v>96.05</v>
       </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
       <c r="J8">
         <v>500</v>
       </c>
@@ -6379,7 +6191,7 @@
         <v>85.81</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>500</v>
       </c>
@@ -6404,6 +6216,9 @@
       <c r="H9">
         <v>94.63</v>
       </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
       <c r="J9">
         <v>500</v>
       </c>
@@ -6429,7 +6244,7 @@
         <v>83.49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>500</v>
       </c>
@@ -6454,6 +6269,9 @@
       <c r="H10">
         <v>95.79</v>
       </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
       <c r="J10">
         <v>500</v>
       </c>
@@ -6479,7 +6297,7 @@
         <v>78.069999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>500</v>
       </c>
@@ -6504,6 +6322,9 @@
       <c r="H11">
         <v>95.52</v>
       </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
       <c r="J11">
         <v>500</v>
       </c>
@@ -6529,7 +6350,7 @@
         <v>82.12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>500</v>
       </c>
@@ -6554,6 +6375,9 @@
       <c r="H12">
         <v>96.08</v>
       </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
       <c r="J12">
         <v>500</v>
       </c>
@@ -6579,7 +6403,7 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>500</v>
       </c>
@@ -6604,6 +6428,9 @@
       <c r="H13">
         <v>96.36</v>
       </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
       <c r="J13">
         <v>500</v>
       </c>
@@ -6629,7 +6456,7 @@
         <v>78.349999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>500</v>
       </c>
@@ -6654,6 +6481,9 @@
       <c r="H14">
         <v>96.17</v>
       </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
       <c r="J14">
         <v>500</v>
       </c>
@@ -6679,7 +6509,7 @@
         <v>80.260000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>500</v>
       </c>
@@ -6704,6 +6534,9 @@
       <c r="H15">
         <v>95.68</v>
       </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
       <c r="J15">
         <v>500</v>
       </c>
@@ -6729,7 +6562,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>500</v>
       </c>
@@ -6753,6 +6586,9 @@
       </c>
       <c r="H16">
         <v>95.91</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
       </c>
       <c r="J16">
         <v>500</v>
@@ -6804,6 +6640,9 @@
       <c r="H17">
         <v>96.02</v>
       </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
       <c r="J17">
         <v>500</v>
       </c>
@@ -6854,6 +6693,9 @@
       <c r="H18">
         <v>94.01</v>
       </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
       <c r="J18">
         <v>500</v>
       </c>
@@ -6904,6 +6746,9 @@
       <c r="H19">
         <v>95.6</v>
       </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
       <c r="J19">
         <v>500</v>
       </c>
@@ -6954,6 +6799,9 @@
       <c r="H20">
         <v>96.13</v>
       </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
       <c r="J20">
         <v>500</v>
       </c>
@@ -7003,6 +6851,9 @@
       </c>
       <c r="H21">
         <v>96.25</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
       </c>
       <c r="J21">
         <v>500</v>
@@ -7054,6 +6905,9 @@
       <c r="H22">
         <v>95.82</v>
       </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
       <c r="J22">
         <v>750</v>
       </c>
@@ -7104,6 +6958,9 @@
       <c r="H23">
         <v>94.54</v>
       </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
       <c r="J23">
         <v>750</v>
       </c>
@@ -7154,6 +7011,9 @@
       <c r="H24">
         <v>95.13</v>
       </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
       <c r="J24">
         <v>750</v>
       </c>
@@ -7204,6 +7064,9 @@
       <c r="H25">
         <v>95.4</v>
       </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
       <c r="J25">
         <v>750</v>
       </c>
@@ -7254,6 +7117,9 @@
       <c r="H26">
         <v>95.68</v>
       </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
       <c r="J26">
         <v>750</v>
       </c>
@@ -7304,6 +7170,9 @@
       <c r="H27">
         <v>96.2</v>
       </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
       <c r="J27">
         <v>750</v>
       </c>
@@ -7354,6 +7223,9 @@
       <c r="H28">
         <v>95.49</v>
       </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
       <c r="J28">
         <v>750</v>
       </c>
@@ -7404,6 +7276,9 @@
       <c r="H29">
         <v>96.03</v>
       </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
       <c r="J29">
         <v>750</v>
       </c>
@@ -7454,6 +7329,9 @@
       <c r="H30">
         <v>95.9</v>
       </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
       <c r="J30">
         <v>750</v>
       </c>
@@ -7504,6 +7382,9 @@
       <c r="H31">
         <v>96.29</v>
       </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
       <c r="J31">
         <v>750</v>
       </c>
@@ -7554,6 +7435,9 @@
       <c r="H32">
         <v>96.39</v>
       </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
       <c r="J32">
         <v>750</v>
       </c>
@@ -7604,6 +7488,9 @@
       <c r="H33">
         <v>95.85</v>
       </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
       <c r="J33">
         <v>750</v>
       </c>
@@ -7654,6 +7541,9 @@
       <c r="H34">
         <v>95.27</v>
       </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
       <c r="J34">
         <v>750</v>
       </c>
@@ -7704,6 +7594,9 @@
       <c r="H35">
         <v>96.46</v>
       </c>
+      <c r="I35">
+        <v>34</v>
+      </c>
       <c r="J35">
         <v>750</v>
       </c>
@@ -7754,6 +7647,9 @@
       <c r="H36">
         <v>96.21</v>
       </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
       <c r="J36">
         <v>750</v>
       </c>
@@ -7804,6 +7700,9 @@
       <c r="H37">
         <v>95.99</v>
       </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
       <c r="J37">
         <v>750</v>
       </c>
@@ -7854,6 +7753,9 @@
       <c r="H38">
         <v>96.4</v>
       </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
       <c r="J38">
         <v>750</v>
       </c>
@@ -7904,6 +7806,9 @@
       <c r="H39">
         <v>96.22</v>
       </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
       <c r="J39">
         <v>750</v>
       </c>
@@ -7954,6 +7859,9 @@
       <c r="H40">
         <v>96.31</v>
       </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
       <c r="J40">
         <v>750</v>
       </c>
@@ -8004,6 +7912,9 @@
       <c r="H41">
         <v>95.41</v>
       </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
       <c r="J41">
         <v>750</v>
       </c>
@@ -8054,6 +7965,9 @@
       <c r="H42">
         <v>94.64</v>
       </c>
+      <c r="I42">
+        <v>41</v>
+      </c>
       <c r="J42">
         <v>1000</v>
       </c>
@@ -8104,6 +8018,9 @@
       <c r="H43">
         <v>95.21</v>
       </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
       <c r="J43">
         <v>1000</v>
       </c>
@@ -8154,6 +8071,9 @@
       <c r="H44">
         <v>96.09</v>
       </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
       <c r="J44">
         <v>1000</v>
       </c>
@@ -8204,6 +8124,9 @@
       <c r="H45">
         <v>95.42</v>
       </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
       <c r="J45">
         <v>1000</v>
       </c>
@@ -8254,6 +8177,9 @@
       <c r="H46">
         <v>95.2</v>
       </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
       <c r="J46">
         <v>1000</v>
       </c>
@@ -8304,6 +8230,9 @@
       <c r="H47">
         <v>96.22</v>
       </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
       <c r="J47">
         <v>1000</v>
       </c>
@@ -8354,6 +8283,9 @@
       <c r="H48">
         <v>95.75</v>
       </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
       <c r="J48">
         <v>1000</v>
       </c>
@@ -8404,6 +8336,9 @@
       <c r="H49">
         <v>95.6</v>
       </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
       <c r="J49">
         <v>1000</v>
       </c>
@@ -8454,6 +8389,9 @@
       <c r="H50">
         <v>95.83</v>
       </c>
+      <c r="I50">
+        <v>49</v>
+      </c>
       <c r="J50">
         <v>1000</v>
       </c>
@@ -8504,6 +8442,9 @@
       <c r="H51">
         <v>95.82</v>
       </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
       <c r="J51">
         <v>1000</v>
       </c>
@@ -8554,6 +8495,9 @@
       <c r="H52">
         <v>96.21</v>
       </c>
+      <c r="I52">
+        <v>51</v>
+      </c>
       <c r="J52">
         <v>1000</v>
       </c>
@@ -8604,6 +8548,9 @@
       <c r="H53">
         <v>96.22</v>
       </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
       <c r="J53">
         <v>1000</v>
       </c>
@@ -8654,6 +8601,9 @@
       <c r="H54">
         <v>95.68</v>
       </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
       <c r="J54">
         <v>1000</v>
       </c>
@@ -8704,6 +8654,9 @@
       <c r="H55">
         <v>96.09</v>
       </c>
+      <c r="I55">
+        <v>54</v>
+      </c>
       <c r="J55">
         <v>1000</v>
       </c>
@@ -8754,6 +8707,9 @@
       <c r="H56">
         <v>96.13</v>
       </c>
+      <c r="I56">
+        <v>55</v>
+      </c>
       <c r="J56">
         <v>1000</v>
       </c>
@@ -8804,6 +8760,9 @@
       <c r="H57">
         <v>95.7</v>
       </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
       <c r="J57">
         <v>1000</v>
       </c>
@@ -8854,6 +8813,9 @@
       <c r="H58">
         <v>95.85</v>
       </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
       <c r="J58">
         <v>1000</v>
       </c>
@@ -8904,6 +8866,9 @@
       <c r="H59">
         <v>96.12</v>
       </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
       <c r="J59">
         <v>1000</v>
       </c>
@@ -8954,6 +8919,9 @@
       <c r="H60">
         <v>96.17</v>
       </c>
+      <c r="I60">
+        <v>59</v>
+      </c>
       <c r="J60">
         <v>1000</v>
       </c>
@@ -9004,6 +8972,9 @@
       <c r="H61">
         <v>95.87</v>
       </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
       <c r="J61">
         <v>1000</v>
       </c>
@@ -9027,6 +8998,38 @@
       </c>
       <c r="Q61">
         <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" t="s">
+        <v>7</v>
+      </c>
+      <c r="N62" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" t="s">
+        <v>9</v>
+      </c>
+      <c r="P62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -9054,6 +9057,9 @@
       <c r="H63">
         <v>93.99</v>
       </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
       <c r="J63">
         <v>500</v>
       </c>
@@ -9104,6 +9110,9 @@
       <c r="H64">
         <v>93.88</v>
       </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
       <c r="J64">
         <v>500</v>
       </c>
@@ -9129,7 +9138,7 @@
         <v>66.86</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>500</v>
       </c>
@@ -9154,6 +9163,9 @@
       <c r="H65">
         <v>94.3</v>
       </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
       <c r="J65">
         <v>500</v>
       </c>
@@ -9179,7 +9191,7 @@
         <v>64.69</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>500</v>
       </c>
@@ -9204,6 +9216,9 @@
       <c r="H66">
         <v>94.93</v>
       </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
       <c r="J66">
         <v>500</v>
       </c>
@@ -9228,8 +9243,23 @@
       <c r="Q66">
         <v>64.88</v>
       </c>
+      <c r="W66" t="s">
+        <v>7</v>
+      </c>
+      <c r="X66" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>500</v>
       </c>
@@ -9254,6 +9284,9 @@
       <c r="H67">
         <v>93.83</v>
       </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
       <c r="J67">
         <v>500</v>
       </c>
@@ -9278,8 +9311,26 @@
       <c r="Q67">
         <v>61.4</v>
       </c>
+      <c r="V67" t="s">
+        <v>3</v>
+      </c>
+      <c r="W67" s="1">
+        <v>93.308333329999996</v>
+      </c>
+      <c r="X67" s="1">
+        <v>98.405000000000001</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>96.320166670000006</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>96.114999999999995</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>95.745166670000003</v>
+      </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>500</v>
       </c>
@@ -9304,6 +9355,9 @@
       <c r="H68">
         <v>93.93</v>
       </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
       <c r="J68">
         <v>500</v>
       </c>
@@ -9328,8 +9382,26 @@
       <c r="Q68">
         <v>64.739999999999995</v>
       </c>
+      <c r="V68" t="s">
+        <v>5</v>
+      </c>
+      <c r="W68" s="1">
+        <v>91.08666667</v>
+      </c>
+      <c r="X68" s="1">
+        <v>93.246333329999999</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>95.277333330000005</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>94.683000000000007</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>94.16033333</v>
+      </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>500</v>
       </c>
@@ -9354,6 +9426,9 @@
       <c r="H69">
         <v>94.39</v>
       </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
       <c r="J69">
         <v>500</v>
       </c>
@@ -9378,8 +9453,26 @@
       <c r="Q69">
         <v>60.02</v>
       </c>
+      <c r="V69" t="s">
+        <v>4</v>
+      </c>
+      <c r="W69" s="1">
+        <v>76.688333330000006</v>
+      </c>
+      <c r="X69" s="1">
+        <v>68.175333330000001</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>83.086166669999997</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>81.451666669999994</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>80.830333330000002</v>
+      </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>500</v>
       </c>
@@ -9404,6 +9497,9 @@
       <c r="H70">
         <v>94.69</v>
       </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
       <c r="J70">
         <v>500</v>
       </c>
@@ -9428,8 +9524,26 @@
       <c r="Q70">
         <v>64.13</v>
       </c>
+      <c r="V70" t="s">
+        <v>6</v>
+      </c>
+      <c r="W70" s="1">
+        <v>60.918333330000003</v>
+      </c>
+      <c r="X70" s="1">
+        <v>56.687333330000001</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>67.672333330000001</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>65.162666669999993</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>64.656999999999996</v>
+      </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>500</v>
       </c>
@@ -9454,6 +9568,9 @@
       <c r="H71">
         <v>94.38</v>
       </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
       <c r="J71">
         <v>500</v>
       </c>
@@ -9479,7 +9596,7 @@
         <v>63.93</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>500</v>
       </c>
@@ -9504,6 +9621,9 @@
       <c r="H72">
         <v>94.62</v>
       </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
       <c r="J72">
         <v>500</v>
       </c>
@@ -9529,7 +9649,7 @@
         <v>63.88</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>750</v>
       </c>
@@ -9554,6 +9674,9 @@
       <c r="H73">
         <v>93.18</v>
       </c>
+      <c r="I73">
+        <v>11</v>
+      </c>
       <c r="J73">
         <v>750</v>
       </c>
@@ -9579,7 +9702,7 @@
         <v>63.78</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>750</v>
       </c>
@@ -9604,6 +9727,9 @@
       <c r="H74">
         <v>93.12</v>
       </c>
+      <c r="I74">
+        <v>12</v>
+      </c>
       <c r="J74">
         <v>750</v>
       </c>
@@ -9629,7 +9755,7 @@
         <v>62.36</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>750</v>
       </c>
@@ -9654,6 +9780,9 @@
       <c r="H75">
         <v>93.09</v>
       </c>
+      <c r="I75">
+        <v>13</v>
+      </c>
       <c r="J75">
         <v>750</v>
       </c>
@@ -9679,7 +9808,7 @@
         <v>67.13</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>750</v>
       </c>
@@ -9704,6 +9833,9 @@
       <c r="H76">
         <v>92.85</v>
       </c>
+      <c r="I76">
+        <v>14</v>
+      </c>
       <c r="J76">
         <v>750</v>
       </c>
@@ -9729,7 +9861,7 @@
         <v>67.78</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>750</v>
       </c>
@@ -9754,6 +9886,9 @@
       <c r="H77">
         <v>94.37</v>
       </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
       <c r="J77">
         <v>750</v>
       </c>
@@ -9779,7 +9914,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>750</v>
       </c>
@@ -9804,6 +9939,9 @@
       <c r="H78">
         <v>93.74</v>
       </c>
+      <c r="I78">
+        <v>16</v>
+      </c>
       <c r="J78">
         <v>750</v>
       </c>
@@ -9829,7 +9967,7 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>750</v>
       </c>
@@ -9854,6 +9992,9 @@
       <c r="H79">
         <v>94.93</v>
       </c>
+      <c r="I79">
+        <v>17</v>
+      </c>
       <c r="J79">
         <v>750</v>
       </c>
@@ -9879,7 +10020,7 @@
         <v>63.55</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>750</v>
       </c>
@@ -9903,6 +10044,9 @@
       </c>
       <c r="H80">
         <v>94.88</v>
+      </c>
+      <c r="I80">
+        <v>18</v>
       </c>
       <c r="J80">
         <v>750</v>
@@ -9954,6 +10098,9 @@
       <c r="H81">
         <v>95.39</v>
       </c>
+      <c r="I81">
+        <v>19</v>
+      </c>
       <c r="J81">
         <v>750</v>
       </c>
@@ -10004,6 +10151,9 @@
       <c r="H82">
         <v>94.61</v>
       </c>
+      <c r="I82">
+        <v>20</v>
+      </c>
       <c r="J82">
         <v>750</v>
       </c>
@@ -10054,6 +10204,9 @@
       <c r="H83">
         <v>93.57</v>
       </c>
+      <c r="I83">
+        <v>21</v>
+      </c>
       <c r="J83">
         <v>1000</v>
       </c>
@@ -10104,6 +10257,9 @@
       <c r="H84">
         <v>94.31</v>
       </c>
+      <c r="I84">
+        <v>22</v>
+      </c>
       <c r="J84">
         <v>1000</v>
       </c>
@@ -10154,6 +10310,9 @@
       <c r="H85">
         <v>93.55</v>
       </c>
+      <c r="I85">
+        <v>23</v>
+      </c>
       <c r="J85">
         <v>1000</v>
       </c>
@@ -10204,6 +10363,9 @@
       <c r="H86">
         <v>94.15</v>
       </c>
+      <c r="I86">
+        <v>24</v>
+      </c>
       <c r="J86">
         <v>1000</v>
       </c>
@@ -10254,6 +10416,9 @@
       <c r="H87">
         <v>93.44</v>
       </c>
+      <c r="I87">
+        <v>25</v>
+      </c>
       <c r="J87">
         <v>1000</v>
       </c>
@@ -10304,6 +10469,9 @@
       <c r="H88">
         <v>94.05</v>
       </c>
+      <c r="I88">
+        <v>26</v>
+      </c>
       <c r="J88">
         <v>1000</v>
       </c>
@@ -10354,6 +10522,9 @@
       <c r="H89">
         <v>94.09</v>
       </c>
+      <c r="I89">
+        <v>27</v>
+      </c>
       <c r="J89">
         <v>1000</v>
       </c>
@@ -10404,6 +10575,9 @@
       <c r="H90">
         <v>95.06</v>
       </c>
+      <c r="I90">
+        <v>28</v>
+      </c>
       <c r="J90">
         <v>1000</v>
       </c>
@@ -10454,6 +10628,9 @@
       <c r="H91">
         <v>95.17</v>
       </c>
+      <c r="I91">
+        <v>29</v>
+      </c>
       <c r="J91">
         <v>1000</v>
       </c>
@@ -10504,6 +10681,9 @@
       <c r="H92">
         <v>94.32</v>
       </c>
+      <c r="I92">
+        <v>30</v>
+      </c>
       <c r="J92">
         <v>1000</v>
       </c>
@@ -10532,5 +10712,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>